--- a/dist/data/profiles/xlsx/bluff/profile 25-11 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 25-11 graph.xlsx
@@ -5014,11 +5014,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52203072"/>
-        <c:axId val="99269901"/>
+        <c:axId val="37591907"/>
+        <c:axId val="42031223"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52203072"/>
+        <c:axId val="37591907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,12 +5053,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99269901"/>
+        <c:crossAx val="42031223"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99269901"/>
+        <c:axId val="42031223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52203072"/>
+        <c:crossAx val="37591907"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
